--- a/spreadsheet/Question_properties.xlsx
+++ b/spreadsheet/Question_properties.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="0" windowWidth="24600" windowHeight="13060" tabRatio="569" activeTab="3"/>
+    <workbookView xWindow="-100" yWindow="0" windowWidth="24600" windowHeight="13080" tabRatio="569" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Definitions" sheetId="1" r:id="rId1"/>
@@ -7859,6 +7859,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
   <extLst>
@@ -8754,6 +8755,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -25242,6 +25244,7 @@
       <c r="L599" s="17"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -25260,7 +25263,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A333" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A342" sqref="A342"/>
+      <selection pane="bottomLeft" activeCell="C354" sqref="C354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.5" defaultRowHeight="12.75" customHeight="1"/>
@@ -37859,14 +37862,15 @@
     </row>
     <row r="354" spans="3:3" ht="12.75" customHeight="1">
       <c r="C354" s="3">
-        <f>LARGE(C2:C342,1)</f>
-        <v>340</v>
+        <f>LARGE(C2:C342,1)+1</f>
+        <v>341</v>
       </c>
     </row>
     <row r="356" spans="3:3" ht="12.75" customHeight="1">
       <c r="C356" s="68"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <autoFilter ref="A1:R339"/>
   <sortState ref="A2:XFD1048576">
     <sortCondition ref="A3:A1048576"/>
@@ -42532,6 +42536,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <autoFilter ref="A1:G405"/>
   <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -54974,6 +54979,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
   <drawing r:id="rId1"/>
@@ -56976,6 +56982,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -63083,6 +63090,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
   <extLst>

--- a/spreadsheet/Question_properties.xlsx
+++ b/spreadsheet/Question_properties.xlsx
@@ -27016,7 +27016,7 @@
   <dimension ref="A1:R382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G363" sqref="G363"/>
     </sheetView>
   </sheetViews>
@@ -58211,6 +58211,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
   <drawing r:id="rId1"/>

--- a/spreadsheet/Question_properties.xlsx
+++ b/spreadsheet/Question_properties.xlsx
@@ -9769,45 +9769,6 @@
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
 <headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*" guid="{C9E3B4C8-A12F-504A-8F75-627A9D8DE348}" diskRevisions="1" revisionId="8329" version="3">
-  <header guid="{24944B09-EC98-3540-A369-A00B990EC668}" dateTime="2013-05-25T15:59:44" maxSheetId="10" userName="David Belavy" r:id="rId62" minRId="8311" maxRId="8320">
-    <sheetIdMap count="9">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{4747004E-8CF4-834F-9B05-CA802EFA6EF1}" dateTime="2013-05-25T16:00:16" maxSheetId="10" userName="David Belavy" r:id="rId63">
-    <sheetIdMap count="9">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{8611A6FC-4819-3240-8DA3-FC37F0049008}" dateTime="2013-05-25T16:13:21" maxSheetId="10" userName="David Belavy" r:id="rId64" minRId="8321" maxRId="8327">
-    <sheetIdMap count="9">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-    </sheetIdMap>
-  </header>
   <header guid="{2AA0907F-9791-DA40-A28F-1D6EEFF16D18}" dateTime="2013-06-23T13:04:33" maxSheetId="10" userName="David Belavy" r:id="rId65" minRId="8328">
     <sheetIdMap count="9">
       <sheetId val="1"/>
@@ -9873,266 +9834,6 @@
 
 <file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <rcv guid="{A2822BA0-8792-8A42-8107-58F529CC73B7}" action="delete"/>
-  <rcv guid="{A2822BA0-8792-8A42-8107-58F529CC73B7}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog15.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <rrc rId="8311" sId="5" ref="A108:XFD108" action="insertRow"/>
-  <rm rId="8312" sheetId="5" source="A109:XFD109" destination="A108:XFD108" sourceSheetId="5">
-    <rfmt sheetId="5" xfDxf="1" s="1" sqref="A108:XFD108" start="0" length="0">
-      <dxf>
-        <font>
-          <b val="0"/>
-          <i val="0"/>
-          <strike val="0"/>
-          <condense val="0"/>
-          <extend val="0"/>
-          <outline val="0"/>
-          <shadow val="0"/>
-          <u val="none"/>
-          <vertAlign val="baseline"/>
-          <sz val="10"/>
-          <color auto="1"/>
-          <name val="Calibri"/>
-          <scheme val="none"/>
-        </font>
-        <numFmt numFmtId="0" formatCode="General"/>
-        <fill>
-          <patternFill patternType="none">
-            <fgColor indexed="64"/>
-            <bgColor indexed="65"/>
-          </patternFill>
-        </fill>
-        <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-        <border diagonalUp="0" diagonalDown="0" outline="0">
-          <left/>
-          <right/>
-          <top/>
-          <bottom/>
-        </border>
-        <protection locked="1" hidden="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="5" sqref="A108" start="0" length="0">
-      <dxf>
-        <font>
-          <color indexed="8"/>
-          <name val="Calibri"/>
-          <scheme val="none"/>
-        </font>
-        <alignment vertical="bottom" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="5" sqref="B108" start="0" length="0">
-      <dxf>
-        <font>
-          <color indexed="8"/>
-          <name val="Calibri"/>
-          <scheme val="none"/>
-        </font>
-        <alignment horizontal="center" vertical="bottom" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="5" sqref="C108" start="0" length="0">
-      <dxf>
-        <font>
-          <color indexed="8"/>
-          <name val="Calibri"/>
-          <scheme val="none"/>
-        </font>
-        <alignment vertical="bottom" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="5" sqref="D108" start="0" length="0">
-      <dxf>
-        <font>
-          <color indexed="8"/>
-          <name val="Calibri"/>
-          <scheme val="none"/>
-        </font>
-        <alignment vertical="bottom" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-  </rm>
-  <rcc rId="8313" sId="5" odxf="1" dxf="1">
-    <nc r="A109" t="inlineStr">
-      <is>
-        <t>Dental_status_patient</t>
-        <phoneticPr fontId="31" type="noConversion"/>
-      </is>
-    </nc>
-    <odxf>
-      <font>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" readingOrder="0"/>
-    </odxf>
-    <ndxf>
-      <font>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="5" sqref="B109" start="0" length="0">
-    <dxf>
-      <font>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rcc rId="8314" sId="5">
-    <nc r="B109">
-      <v>8</v>
-    </nc>
-  </rcc>
-  <rcc rId="8315" sId="5">
-    <nc r="C109" t="inlineStr">
-      <is>
-        <t>None of the above</t>
-        <phoneticPr fontId="31" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="8316" sId="5">
-    <nc r="D109" t="inlineStr">
-      <is>
-        <t>No prostheses or dental damage</t>
-        <phoneticPr fontId="31" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="8317" sId="5">
-    <oc r="C102" t="inlineStr">
-      <is>
-        <t>Loose tooth or teeth</t>
-        <phoneticPr fontId="31" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="C102" t="inlineStr">
-      <is>
-        <t>Loose tooth (or teeth)</t>
-        <phoneticPr fontId="31" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="8318" sId="5">
-    <oc r="C103" t="inlineStr">
-      <is>
-        <t>Chipped or broken tooth or teeth</t>
-        <phoneticPr fontId="31" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="C103" t="inlineStr">
-      <is>
-        <t>Chipped or broken tooth (or teeth)</t>
-        <phoneticPr fontId="31" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="8319" sId="5">
-    <oc r="D103" t="inlineStr">
-      <is>
-        <t>Chipped or broken tooth or teeth</t>
-        <phoneticPr fontId="31" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="D103" t="inlineStr">
-      <is>
-        <t>Chipped or broken tooth (or teeth)</t>
-        <phoneticPr fontId="31" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="8320" sId="5">
-    <oc r="D102" t="inlineStr">
-      <is>
-        <t>Loose tooth or teeth</t>
-        <phoneticPr fontId="31" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="D102" t="inlineStr">
-      <is>
-        <t>Loose tooth (or teeth)</t>
-        <phoneticPr fontId="31" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{A2822BA0-8792-8A42-8107-58F529CC73B7}" action="delete"/>
-  <rcv guid="{A2822BA0-8792-8A42-8107-58F529CC73B7}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <rcv guid="{A2822BA0-8792-8A42-8107-58F529CC73B7}" action="delete"/>
-  <rcv guid="{A2822BA0-8792-8A42-8107-58F529CC73B7}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog17.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <rcc rId="8321" sId="5">
-    <oc r="C109" t="inlineStr">
-      <is>
-        <t>None of the above</t>
-        <phoneticPr fontId="31" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="C109" t="inlineStr">
-      <is>
-        <t>None of the above, no tooth problems or protheses.</t>
-        <phoneticPr fontId="31" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="8322" sId="5" ref="A109:XFD109" action="insertRow"/>
-  <rcc rId="8323" sId="5">
-    <nc r="A109" t="inlineStr">
-      <is>
-        <t>Dental_status_patient</t>
-        <phoneticPr fontId="31" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="8324" sId="5">
-    <nc r="B109">
-      <v>8</v>
-    </nc>
-  </rcc>
-  <rcc rId="8325" sId="5">
-    <oc r="B110">
-      <v>8</v>
-    </oc>
-    <nc r="B110">
-      <v>9</v>
-    </nc>
-  </rcc>
-  <rcc rId="8326" sId="5">
-    <nc r="C109" t="inlineStr">
-      <is>
-        <t>Fillings</t>
-        <phoneticPr fontId="31" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="8327" sId="5">
-    <nc r="D109" t="inlineStr">
-      <is>
-        <t>Fillings</t>
-        <phoneticPr fontId="31" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
   <rcv guid="{A2822BA0-8792-8A42-8107-58F529CC73B7}" action="delete"/>
   <rcv guid="{A2822BA0-8792-8A42-8107-58F529CC73B7}" action="add"/>
 </revisions>
